--- a/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -257,37 +257,19 @@
     <t>Lesbrieven: Crisis en Vervoer</t>
   </si>
   <si>
-    <t xml:space="preserve">A, D, F, G </t>
-  </si>
-  <si>
     <t>Opdracht: keuzeonderwerp</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
   <si>
     <t>Lesbrief Jong &amp; Oud</t>
   </si>
   <si>
-    <t>A, E, F, G, H, I</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lesbrieven: Verdienen &amp; uitgeven. Werk. </t>
-  </si>
-  <si>
-    <t>A, H, I</t>
   </si>
   <si>
     <t xml:space="preserve">Lesbrieven: Markt &amp; overheid. Vervoer. Verdienen &amp; uitgeven. </t>
   </si>
   <si>
-    <t>A, D, F, G, H, I</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lesbrieven: Europa. Jong &amp; oud. Vervoer. Markt &amp; overheid. Verdienen &amp; uitgeven. </t>
-  </si>
-  <si>
-    <t>A, D, E, F, G, H, I, J</t>
   </si>
   <si>
     <t>A</t>
@@ -308,34 +290,16 @@
     <t xml:space="preserve">Lesbrieven: Levensloop, Arbeid, Vraag en aanbod. </t>
   </si>
   <si>
-    <t>A, B, C, D, E, F, G, H, I</t>
-  </si>
-  <si>
     <t>Lesbrieven: Marktgedrag, Vraag en aanbod.</t>
-  </si>
-  <si>
-    <t>A, D, E, F, G, H</t>
   </si>
   <si>
     <t>Lesbrief Monetaire Zaken</t>
   </si>
   <si>
-    <t>I, K</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>Lesbrieven: Marktgedrag, Mobiliteit.</t>
   </si>
   <si>
-    <t>A, B, C, D, E, F, G, H</t>
-  </si>
-  <si>
     <t>Economische crisis</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>Wereldeconomie</t>
@@ -1358,7 +1322,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1366,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I6" s="27">
         <v>1</v>
@@ -1385,9 +1349,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1402,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1421,9 +1383,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1438,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -1457,9 +1417,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1475,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -1494,9 +1452,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1504,7 +1460,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2256,7 +2212,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2370,7 +2326,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2525,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2546,9 +2502,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>93</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2557,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -2576,9 +2530,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>95</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2587,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -2608,9 +2560,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>97</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2619,7 +2569,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="27">
         <v>1</v>
@@ -2638,9 +2588,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2649,7 +2597,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="I22" s="27">
         <v>2</v>
@@ -2670,9 +2618,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>100</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -3168,7 +3114,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3282,7 +3228,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3642,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3661,9 +3607,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>102</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3672,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3691,9 +3635,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>74</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3702,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3721,9 +3663,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>93</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -4162,7 +4102,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5117,7 +5057,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5933,7 +5873,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6749,7 +6689,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7488,9 +7428,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7526,9 +7464,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>76</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7543,7 +7479,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -7564,9 +7500,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7582,7 +7516,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -7601,9 +7535,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7611,7 +7543,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7619,7 +7551,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I10" s="27">
         <v>2</v>
@@ -7640,9 +7572,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8487,7 +8417,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8642,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8661,9 +8591,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>82</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8672,7 +8600,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8691,9 +8619,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8702,7 +8628,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -8721,9 +8647,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>86</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9367,7 +9291,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
@@ -1324,7 +1324,9 @@
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>295</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1358,7 +1360,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>296</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -1392,7 +1396,9 @@
       <c r="B8" s="2">
         <v>82</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>297</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -1427,7 +1433,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>298</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>4</v>
@@ -1460,7 +1468,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1532,7 +1540,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>202</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1552,9 +1562,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1746,7 +1754,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>203</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1951,7 +1961,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>204</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2326,7 +2338,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2398,7 +2410,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>205</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2475,7 +2489,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>299</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2505,7 +2521,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>300</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2533,7 +2551,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>301</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2563,7 +2583,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>302</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -2591,7 +2613,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>303</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>4</v>
@@ -2646,7 +2670,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>206</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2659,9 +2685,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2853,7 +2877,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>207</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3228,7 +3254,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3300,7 +3326,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>208</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3512,7 +3540,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>209</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3582,7 +3612,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>304</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3610,7 +3642,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>305</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3638,7 +3672,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>306</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3735,7 +3771,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>210</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -3748,9 +3786,7 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
+      <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -4102,7 +4138,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5057,7 +5093,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5873,7 +5909,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6689,7 +6725,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7403,7 +7439,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>287</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7437,7 +7475,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>288</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7473,7 +7513,9 @@
       <c r="B8" s="2">
         <v>80</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>289</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -7510,7 +7552,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>290</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7543,9 +7587,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445729167</v>
+      </c>
+      <c r="D10" s="2">
+        <v>291</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7623,7 +7669,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>198</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7643,9 +7691,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -7837,7 +7883,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>199</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8417,7 +8465,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8489,7 +8537,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>200</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8566,7 +8616,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>292</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8594,7 +8646,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>293</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8622,7 +8676,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>294</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -8719,7 +8775,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>201</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -8732,9 +8790,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9291,7 +9347,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,27 +252,72 @@
     <t>EC</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Boek Pincode: hoofdstuk 1 en 2 Consumptie</t>
+  </si>
+  <si>
+    <t>EC/K/1, EC/K/2, EC/K/3, EC/K/4A, EC/K/4B, EC/V/1, EC/V/2</t>
+  </si>
+  <si>
+    <t>Boek Pincode: hoofdstuk 3 en 4 Arbeid</t>
+  </si>
+  <si>
+    <t>EC/K/1, EC/K/2, EC/K/3, EC/K/5A, EC/K/5B, EC/K/8    EC/V/1, EC/V/2</t>
+  </si>
+  <si>
+    <t>Boek Pincode: hoofdstuk 5 t/m 8 Overheid en Internationale ontwikkelingen</t>
+  </si>
+  <si>
+    <t>EC/K/1, EC/K/2, EC/K/6, EC/K/7, EC/V/1, EC/V/2</t>
+  </si>
+  <si>
+    <t>Opdracht: Kopen/huren/verzekeren</t>
+  </si>
+  <si>
+    <t>EC/K/4B</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>Lesbrieven: Crisis en Vervoer</t>
   </si>
   <si>
+    <t xml:space="preserve">A, D, F, G </t>
+  </si>
+  <si>
     <t>Opdracht: keuzeonderwerp</t>
   </si>
   <si>
+    <t>K</t>
+  </si>
+  <si>
     <t>Lesbrief Jong &amp; Oud</t>
   </si>
   <si>
+    <t>A, E, F, G, H, I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesbrieven: Verdienen &amp; uitgeven. Werk. </t>
   </si>
   <si>
+    <t>A, H, I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesbrieven: Markt &amp; overheid. Vervoer. Verdienen &amp; uitgeven. </t>
   </si>
   <si>
+    <t>A, D, F, G, H, I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lesbrieven: Europa. Jong &amp; oud. Vervoer. Markt &amp; overheid. Verdienen &amp; uitgeven. </t>
   </si>
   <si>
+    <t>A, D, E, F, G, H, I, J</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -290,16 +336,34 @@
     <t xml:space="preserve">Lesbrieven: Levensloop, Arbeid, Vraag en aanbod. </t>
   </si>
   <si>
+    <t>A, B, C, D, E, F, G, H, I</t>
+  </si>
+  <si>
     <t>Lesbrieven: Marktgedrag, Vraag en aanbod.</t>
   </si>
   <si>
+    <t>A, D, E, F, G, H</t>
+  </si>
+  <si>
     <t>Lesbrief Monetaire Zaken</t>
   </si>
   <si>
+    <t>I, K</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
     <t>Lesbrieven: Marktgedrag, Mobiliteit.</t>
   </si>
   <si>
+    <t>A, B, C, D, E, F, G, H</t>
+  </si>
+  <si>
     <t>Economische crisis</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
   <si>
     <t>Wereldeconomie</t>
@@ -1234,12 +1298,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1261,25 +1325,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>EC leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>23</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1321,35 +1381,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="2">
-        <v>295</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1357,35 +1407,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>296</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1393,35 +1433,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>82</v>
-      </c>
-      <c r="D8" s="2">
-        <v>297</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>50</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1431,34 +1461,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>298</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1468,7 +1490,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1535,17 +1557,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>202</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1560,7 +1580,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
+        <v>2024</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -1577,7 +1597,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>EC leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1754,12 +1774,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>203</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1784,7 +1802,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>EC leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1961,12 +1979,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>204</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2040,44 +2056,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2141,7 +2119,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2172,7 +2150,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>EC leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>EC leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2224,26 +2202,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="D6" s="2">
+        <v>295</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -2252,26 +2238,34 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>296</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
+      <c r="O7" s="31">
+        <v>0</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -2280,26 +2274,34 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>83</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="D8" s="2">
+        <v>297</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>50</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
+      <c r="O8" s="31">
+        <v>0</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -2309,26 +2311,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>298</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
+      <c r="O9" s="31">
+        <v>0</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -2338,7 +2348,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2405,17 +2415,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2430,7 +2440,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -2447,7 +2457,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>EC leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>EC leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2489,158 +2499,112 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>299</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>300</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>301</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>302</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="27">
-        <v>1</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>303</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="27">
-        <v>2</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>100</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
@@ -2671,11 +2635,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2700,7 +2664,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>EC leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>EC leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2878,11 +2842,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3015,6 +2979,932 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>EC leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>205</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>EC leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>299</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>300</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31">
+        <v>0</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>301</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>1</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>302</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="27">
+        <v>1</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>303</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="27">
+        <v>2</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>2</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>206</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>EC leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>207</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3140,7 +4030,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3254,7 +4144,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3620,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3637,9 +4527,11 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3650,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3667,9 +4559,11 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3680,7 +4574,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3697,9 +4591,11 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -4138,7 +5034,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5093,7 +5989,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5909,7 +6805,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6533,12 +7429,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6560,6 +7456,909 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>EC leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>196</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>EC leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>283</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>1</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>284</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>1</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>285</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>1</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>286</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>197</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>EC leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6725,7 +8524,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7305,920 +9104,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>EC leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>287</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>288</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>1</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>80</v>
-      </c>
-      <c r="D8" s="2">
-        <v>289</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>1</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>290</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2">
-        <v>291</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>2</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>198</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>EC leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>199</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>EC leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8268,7 +9153,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8299,7 +9184,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>EC leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>EC leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8351,26 +9236,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D6" s="2">
+        <v>287</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -8379,56 +9272,80 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>288</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>81</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="D8" s="2">
+        <v>289</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>1</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -8436,26 +9353,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>290</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
+      <c r="O9" s="31">
+        <v>0</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -8465,28 +9390,40 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2">
+        <v>291</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>2</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8532,17 +9469,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8557,7 +9494,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -8574,7 +9511,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>EC leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>EC leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8616,92 +9553,68 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>292</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>293</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>79</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>294</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>80</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
@@ -8776,11 +9689,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8805,7 +9718,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>EC leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>EC leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -8985,7 +9898,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9155,12 +10068,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9182,21 +10095,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>EC leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>23</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9238,7 +10155,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9264,7 +10183,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9290,7 +10211,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>81</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9318,7 +10241,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9347,7 +10270,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9414,15 +10337,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>200</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9437,7 +10362,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9454,7 +10379,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>EC leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9496,70 +10421,100 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>292</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>293</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>294</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9631,10 +10586,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>201</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9659,7 +10616,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>EC leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9839,7 +10796,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  EC leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9913,6 +10870,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809236111</v>
+        <v>44341.37662037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2325,7 +2325,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809236111</v>
+        <v>44341.37662037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3435,7 +3435,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809236111</v>
+        <v>44341.37662037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4592,7 +4592,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809236111</v>
+        <v>44341.37662037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5705,7 +5705,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809236111</v>
+        <v>44341.37662037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6780,7 +6780,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809236111</v>
+        <v>44341.37662037</v>
       </c>
       <c r="D10" s="2">
         <v>291</v>
@@ -7910,7 +7910,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809236111</v>
+        <v>44341.37662037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9018,7 +9018,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809236111</v>
+        <v>44341.37662037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10098,7 +10098,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809236111</v>
+        <v>44341.37662037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11210,7 +11210,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382696759</v>
+        <v>44342.629907407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2818,75 +2818,105 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>1025</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>2</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>1026</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>2</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>1027</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>2</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
@@ -3417,7 +3447,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382696759</v>
+        <v>44342.629907407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4689,7 +4719,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382696759</v>
+        <v>44342.629907407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4900,99 +4930,137 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1013</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>1</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1014</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>1</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1015</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>1</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1016</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
@@ -5764,7 +5832,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382696759</v>
+        <v>44342.629907407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6757,25 +6825,33 @@
       <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1020</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
@@ -6787,27 +6863,39 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1021</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
@@ -6817,27 +6905,39 @@
       <c r="B8" s="2">
         <v>248</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1022</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>1</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
@@ -6848,25 +6948,33 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1023</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
@@ -6877,29 +6985,41 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382696759</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629907407</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1024</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>2</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
@@ -7995,7 +8115,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382696759</v>
+        <v>44342.629907407</v>
       </c>
       <c r="D10" s="2">
         <v>291</v>
@@ -8218,75 +8338,105 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1017</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1018</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1019</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
@@ -9085,7 +9235,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382696759</v>
+        <v>44342.629907407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10073,25 +10223,33 @@
       <c r="B6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1033</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
@@ -10103,25 +10261,33 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1034</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
+      <c r="O7" s="27">
+        <v>0</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="37"/>
@@ -10133,25 +10299,33 @@
       <c r="B8" s="2">
         <v>249</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1035</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>50</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
+      <c r="O8" s="27">
+        <v>0</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="37"/>
@@ -10164,25 +10338,33 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1036</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
@@ -10193,7 +10375,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382696759</v>
+        <v>44342.629907407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11305,7 +11487,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382696759</v>
+        <v>44342.629907407</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11516,123 +11698,179 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1028</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1029</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
-      <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+      <c r="O19" s="27">
+        <v>0</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1030</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>1</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1031</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>1032</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>4</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="23">
+        <v>2</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="23">
+        <v>100</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>2</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">

--- a/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/EC PTA en onderwijsprogramma.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>Boek Pincode: hoofdstuk 1 en 2 Consumptie</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>EC/K/1, EC/K/2, EC/K/3, EC/K/4A, EC/K/4B, EC/V/1, EC/V/2</t>
@@ -2235,7 +2238,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2589,7 +2592,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
+        <v>44378.451331019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2961,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -2980,10 +2983,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -3055,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -3072,7 +3075,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3145,7 +3148,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -3164,10 +3167,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -3239,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -3256,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -3331,7 +3334,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -3350,10 +3353,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -3670,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3687,10 +3690,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3762,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -3779,10 +3782,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -3854,7 +3857,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -3871,10 +3874,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -4557,7 +4560,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4911,7 +4914,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
+        <v>44378.451331019</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5938,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -5955,10 +5958,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6030,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -6047,10 +6050,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -6122,7 +6125,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6139,10 +6142,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -7354,7 +7357,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.451319444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7743,10 +7746,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7818,7 +7821,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7835,10 +7838,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7910,7 +7913,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7927,10 +7930,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8002,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -8017,10 +8020,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -9628,7 +9631,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.451319444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10017,10 +10020,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -10092,7 +10095,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -10109,10 +10112,10 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -10184,7 +10187,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -10201,10 +10204,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -10276,7 +10279,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -10291,10 +10294,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -11548,7 +11551,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2">
         <v>1020</v>
@@ -11558,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -11575,7 +11578,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11654,7 +11657,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11673,10 +11676,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11754,7 +11757,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11773,10 +11776,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11855,7 +11858,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11871,8 +11874,8 @@
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11942,7 +11945,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.451319444</v>
       </c>
       <c r="D10" s="2">
         <v>1024</v>
@@ -11952,7 +11955,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -11971,10 +11974,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -13836,7 +13839,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2">
         <v>287</v>
@@ -13846,7 +13849,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -13862,8 +13865,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -13942,7 +13945,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -13961,10 +13964,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -14042,7 +14045,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -14061,10 +14064,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14143,7 +14146,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -14159,8 +14162,8 @@
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14230,7 +14233,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.451319444</v>
       </c>
       <c r="D10" s="2">
         <v>291</v>
@@ -14240,7 +14243,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -14259,10 +14262,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -14614,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14631,10 +14634,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14706,7 +14709,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -14723,10 +14726,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14798,7 +14801,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -14815,10 +14818,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -16154,7 +16157,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16508,7 +16511,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
+        <v>44378.451319444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16880,7 +16883,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -16897,10 +16900,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -16972,7 +16975,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -16989,10 +16992,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17064,7 +17067,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -17081,10 +17084,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -18420,7 +18423,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2">
         <v>1033</v>
@@ -18430,7 +18433,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -18447,7 +18450,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18526,7 +18529,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -18543,7 +18546,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18622,7 +18625,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -18639,7 +18642,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18719,7 +18722,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -18736,7 +18739,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -18806,7 +18809,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
+        <v>44378.451319444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20690,7 +20693,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2">
         <v>295</v>
@@ -20700,7 +20703,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -20716,8 +20719,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20796,7 +20799,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -20812,8 +20815,8 @@
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -20892,7 +20895,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -20908,8 +20911,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -20989,7 +20992,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -21005,8 +21008,8 @@
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21076,7 +21079,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541099537</v>
+        <v>44378.451319444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -21448,7 +21451,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -21467,10 +21470,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -21542,7 +21545,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -21559,7 +21562,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -21632,7 +21635,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -21651,10 +21654,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -21726,7 +21729,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -21743,10 +21746,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -21818,7 +21821,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -21837,10 +21840,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
